--- a/NIF_Unfold/ActivationData.xlsx
+++ b/NIF_Unfold/ActivationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickq\Documents\AFIT_Masters\NENG612\NIF_Unfold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CB04EF0-DE69-43F1-88D0-2DFDC0DE1623}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50E1FF3E-7E40-4598-BBA9-ADC7CA809D8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{E0A1BC66-9EAA-4CB3-9B73-41434CA45BDC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>location</t>
   </si>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t>standoff [cm]</t>
+  </si>
+  <si>
+    <t>Na-24</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>mil</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -457,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91557CC6-6708-41CD-8963-7C37D25C83C7}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -657,33 +681,36 @@
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
-        <v>0.93930000000000002</v>
+        <v>12.56</v>
       </c>
       <c r="E7" s="4">
-        <v>946.8324591174329</v>
+        <f>217700/60</f>
+        <v>3628.3333333333335</v>
       </c>
       <c r="F7" s="4">
-        <v>729099326.81836331</v>
+        <v>282600000</v>
       </c>
       <c r="G7" s="6">
-        <v>1.2</v>
+        <v>7.9</v>
       </c>
       <c r="H7" s="4">
-        <v>776215614.62617195</v>
+        <f>F7/D7</f>
+        <v>22500000</v>
       </c>
       <c r="I7" s="4">
-        <v>2.0978800395301944E-7</v>
+        <f>H7/(3700000000000000)</f>
+        <v>6.0810810810810809E-9</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
@@ -696,25 +723,25 @@
         <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>0.93930000000000002</v>
       </c>
       <c r="E8" s="4">
-        <v>199.99899947771956</v>
+        <v>946.8324591174329</v>
       </c>
       <c r="F8" s="4">
-        <v>67169663.974592119</v>
+        <v>729099326.81836331</v>
       </c>
       <c r="G8" s="6">
         <v>1.2</v>
       </c>
       <c r="H8" s="4">
-        <v>71510341.716802001</v>
+        <v>776215614.62617195</v>
       </c>
       <c r="I8" s="4">
-        <v>1.9327119382919458E-8</v>
+        <v>2.0978800395301944E-7</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5"/>
@@ -727,25 +754,25 @@
         <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>0.41889999999999999</v>
+        <v>0.93930000000000002</v>
       </c>
       <c r="E9" s="4">
-        <v>930.40474128873905</v>
+        <v>199.99899947771956</v>
       </c>
       <c r="F9" s="4">
-        <v>21678363.871831391</v>
+        <v>67169663.974592119</v>
       </c>
       <c r="G9" s="6">
         <v>1.2</v>
       </c>
       <c r="H9" s="4">
-        <v>51750689.59615992</v>
+        <v>71510341.716802001</v>
       </c>
       <c r="I9" s="4">
-        <v>1.3986672863827006E-8</v>
+        <v>1.9327119382919458E-8</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
@@ -758,25 +785,25 @@
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3">
         <v>0.41889999999999999</v>
       </c>
       <c r="E10" s="4">
-        <v>16850.364724661609</v>
+        <v>930.40474128873905</v>
       </c>
       <c r="F10" s="4">
-        <v>79134907.848811373</v>
+        <v>21678363.871831391</v>
       </c>
       <c r="G10" s="6">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H10" s="4">
-        <v>188911214.7262148</v>
+        <v>51750689.59615992</v>
       </c>
       <c r="I10" s="4">
-        <v>5.1057085061139132E-8</v>
+        <v>1.3986672863827006E-8</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
@@ -789,87 +816,89 @@
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2626</v>
+        <v>0.41889999999999999</v>
       </c>
       <c r="E11" s="4">
-        <v>175.6615109257871</v>
+        <v>16850.364724661609</v>
       </c>
       <c r="F11" s="4">
-        <v>71507901.212351248</v>
+        <v>79134907.848811373</v>
       </c>
       <c r="G11" s="6">
-        <v>1.1000000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="H11" s="4">
-        <v>272307316.11710298</v>
+        <v>188911214.7262148</v>
       </c>
       <c r="I11" s="4">
-        <v>7.3596571923541343E-8</v>
+        <v>5.1057085061139132E-8</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
-        <v>0.14799999999999999</v>
+        <v>0.2626</v>
       </c>
       <c r="E12" s="4">
-        <v>6974.9992617179323</v>
+        <v>175.6615109257871</v>
       </c>
       <c r="F12" s="4">
-        <v>5370999431.4963455</v>
+        <v>71507901.212351248</v>
       </c>
       <c r="G12" s="6">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H12" s="4">
-        <v>36290536699.299637</v>
+        <v>272307316.11710298</v>
       </c>
       <c r="I12" s="4">
-        <v>9.8082531619728745E-6</v>
+        <v>7.3596571923541343E-8</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
-        <v>0.14799999999999999</v>
+        <f>0.0962</f>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="E13" s="4">
-        <v>106.71660546501033</v>
+        <f>24650/60</f>
+        <v>410.83333333333331</v>
       </c>
       <c r="F13" s="4">
-        <v>35829979.45161318</v>
+        <v>32000000</v>
       </c>
       <c r="G13" s="6">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H13" s="4">
-        <v>242094455.75414312</v>
+        <v>272307316.11710298</v>
       </c>
       <c r="I13" s="4">
-        <v>6.5430933987606251E-8</v>
+        <v>7.3596571923541343E-8</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
@@ -882,25 +911,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1.1819999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E14" s="4">
-        <v>123250.81264223563</v>
+        <v>6974.9992617179323</v>
       </c>
       <c r="F14" s="4">
-        <v>2872242136.4429607</v>
+        <v>5370999431.4963455</v>
       </c>
       <c r="G14" s="6">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H14" s="4">
-        <v>2429984887.0075812</v>
+        <v>36290536699.299637</v>
       </c>
       <c r="I14" s="4">
-        <v>6.5675267216421116E-7</v>
+        <v>9.8082531619728745E-6</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
@@ -913,25 +942,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1.1819999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E15" s="4">
-        <v>152757.42307722464</v>
+        <v>106.71660546501033</v>
       </c>
       <c r="F15" s="4">
-        <v>717736341.01455009</v>
+        <v>35829979.45161318</v>
       </c>
       <c r="G15" s="6">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H15" s="4">
-        <v>607221946.71281731</v>
+        <v>242094455.75414312</v>
       </c>
       <c r="I15" s="4">
-        <v>1.6411403965211279E-7</v>
+        <v>6.5430933987606251E-8</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
@@ -944,28 +973,145 @@
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3">
-        <v>1.008</v>
+        <v>1.1819999999999999</v>
       </c>
       <c r="E16" s="4">
-        <v>27716.641424832629</v>
+        <v>123250.81264223563</v>
       </c>
       <c r="F16" s="4">
-        <v>11289989718.088768</v>
+        <v>2872242136.4429607</v>
       </c>
       <c r="G16" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H16" s="4">
-        <v>11200386625.088064</v>
+        <v>2429984887.0075812</v>
       </c>
       <c r="I16" s="4">
-        <v>3.0271315202940714E-6</v>
+        <v>6.5675267216421116E-7</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>152757.42307722464</v>
+      </c>
+      <c r="F17" s="4">
+        <v>717736341.01455009</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>607221946.71281731</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.6411403965211279E-7</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.008</v>
+      </c>
+      <c r="E18" s="4">
+        <v>27716.641424832629</v>
+      </c>
+      <c r="F18" s="4">
+        <v>11289989718.088768</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>11200386625.088064</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3.0271315202940714E-6</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NIF_Unfold/ActivationData.xlsx
+++ b/NIF_Unfold/ActivationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickq\Documents\AFIT_Masters\NENG612\NIF_Unfold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{344E5A6A-845A-44DF-BB5E-0CC695F671D4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16C5A512-8293-455C-9FB7-48DBFF4BA810}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{E0A1BC66-9EAA-4CB3-9B73-41434CA45BDC}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{E0A1BC66-9EAA-4CB3-9B73-41434CA45BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="ShotData" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>location</t>
   </si>
@@ -190,16 +190,26 @@
   <si>
     <t>Gamma Self Shielding</t>
   </si>
+  <si>
+    <t>Radius [cm]</t>
+  </si>
+  <si>
+    <t>mircoxs-barns</t>
+  </si>
+  <si>
+    <t>Estimate of N0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
     <numFmt numFmtId="166" formatCode="0.00000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -252,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -278,6 +288,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6079,11 +6090,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91557CC6-6708-41CD-8963-7C37D25C83C7}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1:T21"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6092,17 +6103,20 @@
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28.8">
+    <row r="1" spans="1:24" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6116,35 +6130,44 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="43.2">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="43.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -6157,57 +6180,68 @@
       <c r="D2" s="3">
         <v>3.7330000000000001</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="13">
+        <f>(3.7*10^15/(4*PI()*C2^2))*(1-EXP(-0.01*(E2*10^-24)*(6.022*10^23)*M2/L2))</f>
+        <v>21550663.704461243</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SQRT(D2/(M2*PI()*0.01))</f>
+        <v>2.4799932431661054</v>
+      </c>
+      <c r="H2" s="4">
         <v>573.83320004160112</v>
       </c>
-      <c r="F2" s="4">
+      <c r="I2" s="4">
         <v>441999897.33091086</v>
       </c>
-      <c r="G2" s="6">
+      <c r="J2" s="6">
         <v>1.6</v>
       </c>
-      <c r="H2" s="5">
+      <c r="K2" s="5">
         <v>0.97422169985945928</v>
       </c>
-      <c r="I2" s="12">
+      <c r="L2" s="12">
         <v>196.9666</v>
       </c>
-      <c r="J2" s="8">
+      <c r="M2" s="8">
         <v>19.32</v>
       </c>
-      <c r="K2" s="11">
-        <f>(6.022*10^23)*D2/I2</f>
+      <c r="N2" s="11">
+        <f>(6.022*10^23)*D2/L2</f>
         <v>1.1413166496248601E+22</v>
       </c>
-      <c r="L2" s="7">
-        <f>F2/K2/H2</f>
+      <c r="O2" s="7">
+        <f>I2/N2/K2</f>
         <v>3.9751929799874061E-14</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="11"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -6220,56 +6254,67 @@
       <c r="D3" s="3">
         <v>3.7330000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3" s="13">
+        <f>(3.7*10^15/(4*PI()*C3^2))*(1-EXP(-0.01*(E3*10^-24)*(6.022*10^23)*M3/L3))</f>
+        <v>14373.47064970708</v>
+      </c>
+      <c r="G3" s="3">
+        <f>SQRT(D3/(M3*PI()*0.01))</f>
+        <v>2.4799932431661054</v>
+      </c>
+      <c r="H3" s="4">
         <v>663.49916495298066</v>
       </c>
-      <c r="F3" s="4">
+      <c r="I3" s="4">
         <v>222699719.721219</v>
       </c>
-      <c r="G3" s="6">
+      <c r="J3" s="6">
         <v>1.2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="K3" s="5">
         <v>0.98017778522755672</v>
       </c>
-      <c r="I3" s="12">
+      <c r="L3" s="12">
         <v>196.9666</v>
       </c>
-      <c r="J3" s="8">
+      <c r="M3" s="8">
         <v>19.32</v>
       </c>
-      <c r="K3" s="11">
-        <f t="shared" ref="K3:K20" si="0">(6.022*10^23)*D3/I3</f>
+      <c r="N3" s="11">
+        <f t="shared" ref="N3:N20" si="0">(6.022*10^23)*D3/L3</f>
         <v>1.1413166496248601E+22</v>
       </c>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3:L20" si="1">F3/K3/H3</f>
+      <c r="O3" s="7">
+        <f t="shared" ref="O3:O20" si="1">I3/N3/K3</f>
         <v>1.9907130442083732E-14</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="3">
+      <c r="R3" s="3">
         <v>3.7330000000000001</v>
       </c>
-      <c r="P3" s="4">
+      <c r="S3" s="4">
         <v>573.83320004160112</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="T3" s="4">
         <v>441999897.33091086</v>
       </c>
-      <c r="R3" s="6">
+      <c r="U3" s="6">
         <v>1.6</v>
       </c>
-      <c r="S3" s="5">
+      <c r="V3" s="5">
         <v>0.97422169985945928</v>
       </c>
-      <c r="T3" s="4">
+      <c r="W3" s="4">
         <v>3.9751929799874061E-14</v>
       </c>
-      <c r="U3" s="11"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="X3" s="11"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -6282,56 +6327,67 @@
       <c r="D4" s="3">
         <v>14.35</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="13">
+        <f>(3.7*10^15/(4*PI()*C4^2))*(1-EXP(-0.1*(E4*10^-24)*(6.022*10^23)*M4/L4))</f>
+        <v>18637765.792200025</v>
+      </c>
+      <c r="G4" s="3">
+        <f>SQRT(D4/(M4*PI()*0.1))</f>
+        <v>2.4997255298682215</v>
+      </c>
+      <c r="H4" s="4">
         <v>5571.0403681407852</v>
       </c>
-      <c r="F4" s="4">
+      <c r="I4" s="4">
         <v>129785409.47376738</v>
       </c>
-      <c r="G4" s="6">
+      <c r="J4" s="6">
         <v>1.2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="K4" s="5">
         <v>0.94996005749985768</v>
       </c>
-      <c r="I4" s="12">
+      <c r="L4" s="12">
         <v>114.9038</v>
       </c>
-      <c r="J4" s="8">
+      <c r="M4" s="8">
         <v>7.31</v>
       </c>
-      <c r="K4" s="11">
+      <c r="N4" s="11">
         <f t="shared" si="0"/>
         <v>7.5206999246326047E+22</v>
       </c>
-      <c r="L4" s="7">
+      <c r="O4" s="7">
         <f t="shared" si="1"/>
         <v>1.8166123645725858E-15</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="3">
+      <c r="R4" s="3">
         <v>3.7330000000000001</v>
       </c>
-      <c r="P4" s="4">
+      <c r="S4" s="4">
         <v>663.49916495298066</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="T4" s="4">
         <v>222699719.721219</v>
       </c>
-      <c r="R4" s="6">
+      <c r="U4" s="6">
         <v>1.2</v>
       </c>
-      <c r="S4" s="5">
+      <c r="V4" s="5">
         <v>0.98017778522755672</v>
       </c>
-      <c r="T4" s="4">
+      <c r="W4" s="4">
         <v>1.9907130442083732E-14</v>
       </c>
-      <c r="U4" s="11"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -6344,56 +6400,67 @@
       <c r="D5" s="3">
         <v>14.35</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="13">
+        <f>(3.7*10^15/(4*PI()*C5^2))*(1-EXP(-0.1*(E5*10^-24)*(6.022*10^23)*M5/L5))</f>
+        <v>93224.356536842082</v>
+      </c>
+      <c r="G5" s="3">
+        <f>SQRT(D5/(M5*PI()*0.1))</f>
+        <v>2.4997255298682215</v>
+      </c>
+      <c r="H5" s="4">
         <v>212246.36852059895</v>
       </c>
-      <c r="F5" s="4">
+      <c r="I5" s="4">
         <v>997242138.70289242</v>
       </c>
-      <c r="G5" s="6">
+      <c r="J5" s="6">
         <v>1.6</v>
       </c>
-      <c r="H5" s="5">
+      <c r="K5" s="5">
         <v>0.99792537849465746</v>
       </c>
-      <c r="I5" s="12">
+      <c r="L5" s="12">
         <v>114.9038</v>
       </c>
-      <c r="J5" s="8">
+      <c r="M5" s="8">
         <v>7.31</v>
       </c>
-      <c r="K5" s="11">
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>7.5206999246326047E+22</v>
       </c>
-      <c r="L5" s="7">
+      <c r="O5" s="7">
         <f t="shared" si="1"/>
         <v>1.3287531078382612E-14</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="3">
+      <c r="R5" s="3">
         <v>14.35</v>
       </c>
-      <c r="P5" s="4">
+      <c r="S5" s="4">
         <v>5571.0403681407852</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="T5" s="4">
         <v>129785409.47376738</v>
       </c>
-      <c r="R5" s="6">
+      <c r="U5" s="6">
         <v>1.2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="V5" s="5">
         <v>0.94996005749985768</v>
       </c>
-      <c r="T5" s="4">
+      <c r="W5" s="4">
         <v>1.8166123645725858E-15</v>
       </c>
-      <c r="U5" s="11"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -6406,56 +6473,67 @@
       <c r="D6" s="3">
         <v>12.555</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="13">
+        <f>(3.7*10^15/(4*PI()*C6^2))*(1-EXP(-0.1*(E6*10^-24)*(6.022*10^23)*M6/L6))</f>
+        <v>52833288.979093283</v>
+      </c>
+      <c r="G6" s="3">
+        <f>SQRT(D6/(M6*PI()*0.1))</f>
+        <v>2.481481682810188</v>
+      </c>
+      <c r="H6" s="4">
         <v>1130.999582098983</v>
       </c>
-      <c r="F6" s="4">
+      <c r="I6" s="4">
         <v>460599829.80971843</v>
       </c>
-      <c r="G6" s="6">
+      <c r="J6" s="6">
         <v>1.5</v>
       </c>
-      <c r="H6" s="5">
+      <c r="K6" s="5">
         <v>0.98030078438895207</v>
       </c>
-      <c r="I6" s="12">
+      <c r="L6" s="12">
         <v>89.904700000000005</v>
       </c>
-      <c r="J6" s="5">
+      <c r="M6" s="5">
         <v>6.49</v>
       </c>
-      <c r="K6" s="11">
+      <c r="N6" s="11">
         <f t="shared" si="0"/>
         <v>8.4095948265218598E+22</v>
       </c>
-      <c r="L6" s="7">
+      <c r="O6" s="7">
         <f t="shared" si="1"/>
         <v>5.5871373901575363E-15</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="3">
+      <c r="R6" s="3">
         <v>14.35</v>
       </c>
-      <c r="P6" s="4">
+      <c r="S6" s="4">
         <v>212246.36852059895</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="T6" s="4">
         <v>997242138.70289242</v>
       </c>
-      <c r="R6" s="6">
+      <c r="U6" s="6">
         <v>1.6</v>
       </c>
-      <c r="S6" s="5">
+      <c r="V6" s="5">
         <v>0.99792537849465746</v>
       </c>
-      <c r="T6" s="4">
+      <c r="W6" s="4">
         <v>1.3287531078382612E-14</v>
       </c>
-      <c r="U6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" s="3" customFormat="1">
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7" spans="1:24" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -6468,89 +6546,101 @@
       <c r="D7" s="3">
         <v>12.56</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="13">
+        <f>(3.7*10^15/(4*PI()*C7^2))*(1-EXP(-0.1*(E7*10^-24)*(6.022*10^23)*M7/L7))</f>
+        <v>14659328.123838633</v>
+      </c>
+      <c r="G7" s="3">
+        <f>SQRT(D7/(M7*PI()*0.1))</f>
+        <v>3.8480260309759067</v>
+      </c>
+      <c r="H7" s="4">
         <f>217700/60</f>
         <v>3628.3333333333335</v>
       </c>
-      <c r="F7" s="4">
+      <c r="I7" s="4">
         <v>282600000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="J7" s="6">
         <v>7.9</v>
       </c>
-      <c r="H7" s="5">
+      <c r="K7" s="5">
         <v>0.99294876429584389</v>
       </c>
-      <c r="I7" s="12">
+      <c r="L7" s="12">
         <v>26.9815</v>
       </c>
-      <c r="J7" s="8">
+      <c r="M7" s="8">
         <v>2.7</v>
       </c>
-      <c r="K7" s="11">
+      <c r="N7" s="11">
         <f t="shared" si="0"/>
         <v>2.8032659414784202E+23</v>
       </c>
-      <c r="L7" s="7">
+      <c r="O7" s="7">
         <f t="shared" si="1"/>
         <v>1.0152687464611961E-15</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="3">
+      <c r="R7" s="3">
         <v>12.555</v>
       </c>
-      <c r="P7" s="4">
+      <c r="S7" s="4">
         <v>1130.999582098983</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="T7" s="4">
         <v>460599829.80971843</v>
       </c>
-      <c r="R7" s="6">
+      <c r="U7" s="6">
         <v>1.5</v>
       </c>
-      <c r="S7" s="5">
+      <c r="V7" s="5">
         <v>0.98030078438895207</v>
       </c>
-      <c r="T7" s="4">
+      <c r="W7" s="4">
         <v>5.5871373901575363E-15</v>
       </c>
-      <c r="U7" s="11"/>
-    </row>
-    <row r="8" spans="1:21" s="3" customFormat="1">
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="7"/>
-      <c r="N8" s="3" t="s">
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" s="3" customFormat="1">
+      <c r="F8" s="13"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="7"/>
+      <c r="Q8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>12.56</v>
       </c>
-      <c r="P8" s="4">
+      <c r="S8" s="4">
         <v>3628.3333333333335</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="T8" s="4">
         <v>282600000</v>
       </c>
-      <c r="R8" s="6">
+      <c r="U8" s="6">
         <v>7.9</v>
       </c>
-      <c r="S8" s="5">
+      <c r="V8" s="5">
         <v>0.99294876429584389</v>
       </c>
-      <c r="T8" s="4">
+      <c r="W8" s="4">
         <v>1.0152687464611961E-15</v>
       </c>
-      <c r="U8" s="11"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -6563,44 +6653,55 @@
       <c r="D9" s="3">
         <v>0.93930000000000002</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="13">
+        <f>(3.7*10^15/(4*PI()*C9^2))*(1-EXP(-0.01*(E9*10^-24)*(6.022*10^23)*M9/L9))</f>
+        <v>155123754.20819813</v>
+      </c>
+      <c r="G9" s="3">
+        <f>SQRT(D9/(M9*PI()*0.01))</f>
+        <v>1.2440094051350099</v>
+      </c>
+      <c r="H9" s="4">
         <v>946.8324591174329</v>
       </c>
-      <c r="F9" s="4">
+      <c r="I9" s="4">
         <v>729099326.81836331</v>
       </c>
-      <c r="G9" s="6">
+      <c r="J9" s="6">
         <v>1.2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="K9" s="5">
         <v>0.97422169985945928</v>
       </c>
-      <c r="I9" s="12">
+      <c r="L9" s="12">
         <v>196.9666</v>
       </c>
-      <c r="J9" s="8">
+      <c r="M9" s="8">
         <v>19.32</v>
       </c>
-      <c r="K9" s="11">
+      <c r="N9" s="11">
         <f t="shared" si="0"/>
         <v>2.8717887195087897E+21</v>
       </c>
-      <c r="L9" s="7">
+      <c r="O9" s="7">
         <f t="shared" si="1"/>
         <v>2.6060120118169032E-13</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="5"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="U9" s="6"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -6613,56 +6714,67 @@
       <c r="D10" s="3">
         <v>0.93930000000000002</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="13">
+        <f>(3.7*10^15/(4*PI()*C10^2))*(1-EXP(-0.01*(E10*10^-24)*(6.022*10^23)*M10/L10))</f>
+        <v>103461.62692531569</v>
+      </c>
+      <c r="G10" s="3">
+        <f>SQRT(D10/(M10*PI()*0.01))</f>
+        <v>1.2440094051350099</v>
+      </c>
+      <c r="H10" s="4">
         <v>199.99899947771956</v>
       </c>
-      <c r="F10" s="4">
+      <c r="I10" s="4">
         <v>67169663.974592119</v>
       </c>
-      <c r="G10" s="6">
+      <c r="J10" s="6">
         <v>1.2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="K10" s="5">
         <v>0.98017778522755672</v>
       </c>
-      <c r="I10" s="12">
+      <c r="L10" s="12">
         <v>196.9666</v>
       </c>
-      <c r="J10" s="8">
+      <c r="M10" s="8">
         <v>19.32</v>
       </c>
-      <c r="K10" s="11">
+      <c r="N10" s="11">
         <f t="shared" si="0"/>
         <v>2.8717887195087897E+21</v>
       </c>
-      <c r="L10" s="7">
+      <c r="O10" s="7">
         <f t="shared" si="1"/>
         <v>2.3862494154337119E-14</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>0.93930000000000002</v>
       </c>
-      <c r="P10" s="4">
+      <c r="S10" s="4">
         <v>946.8324591174329</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="T10" s="4">
         <v>729099326.81836331</v>
       </c>
-      <c r="R10" s="6">
+      <c r="U10" s="6">
         <v>1.2</v>
       </c>
-      <c r="S10" s="5">
+      <c r="V10" s="5">
         <v>0.97422169985945928</v>
       </c>
-      <c r="T10" s="4">
+      <c r="W10" s="4">
         <v>2.6060120118169032E-13</v>
       </c>
-      <c r="U10" s="11"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -6675,56 +6787,67 @@
       <c r="D11" s="3">
         <v>0.41889999999999999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="13">
+        <f>(3.7*10^15/(4*PI()*C11^2))*(1-EXP(-0.1*(E11*10^-24)*(6.022*10^23)*M11/L11))</f>
+        <v>134156434.31625241</v>
+      </c>
+      <c r="G11" s="3">
+        <f>SQRT(D11/(M11*PI()*0.1))</f>
+        <v>0.42709211679404663</v>
+      </c>
+      <c r="H11" s="4">
         <v>930.40474128873905</v>
       </c>
-      <c r="F11" s="4">
+      <c r="I11" s="4">
         <v>21678363.871831391</v>
       </c>
-      <c r="G11" s="6">
+      <c r="J11" s="6">
         <v>1.2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="K11" s="5">
         <v>0.94996005749985768</v>
       </c>
-      <c r="I11" s="12">
+      <c r="L11" s="12">
         <v>114.9038</v>
       </c>
-      <c r="J11" s="8">
+      <c r="M11" s="8">
         <v>7.31</v>
       </c>
-      <c r="K11" s="11">
+      <c r="N11" s="11">
         <f t="shared" si="0"/>
         <v>2.1954154692882216E+21</v>
       </c>
-      <c r="L11" s="7">
+      <c r="O11" s="7">
         <f t="shared" si="1"/>
         <v>1.0394519936531873E-14</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="3">
+      <c r="R11" s="3">
         <v>0.93930000000000002</v>
       </c>
-      <c r="P11" s="4">
+      <c r="S11" s="4">
         <v>199.99899947771956</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="T11" s="4">
         <v>67169663.974592119</v>
       </c>
-      <c r="R11" s="6">
+      <c r="U11" s="6">
         <v>1.2</v>
       </c>
-      <c r="S11" s="5">
+      <c r="V11" s="5">
         <v>0.98017778522755672</v>
       </c>
-      <c r="T11" s="4">
+      <c r="W11" s="4">
         <v>2.3862494154337119E-14</v>
       </c>
-      <c r="U11" s="11"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -6737,56 +6860,67 @@
       <c r="D12" s="3">
         <v>0.41889999999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" ref="F12:F14" si="2">(3.7*10^15/(4*PI()*C12^2))*(1-EXP(-0.1*(E12*10^-24)*(6.022*10^23)*M12/L12))</f>
+        <v>671037.90249600797</v>
+      </c>
+      <c r="G12" s="3">
+        <f>SQRT(D12/(M12*PI()*0.1))</f>
+        <v>0.42709211679404663</v>
+      </c>
+      <c r="H12" s="4">
         <v>16850.364724661609</v>
       </c>
-      <c r="F12" s="4">
+      <c r="I12" s="4">
         <v>79134907.848811373</v>
       </c>
-      <c r="G12" s="6">
+      <c r="J12" s="6">
         <v>2.8</v>
       </c>
-      <c r="H12" s="5">
+      <c r="K12" s="5">
         <v>0.99792537849465746</v>
       </c>
-      <c r="I12" s="12">
+      <c r="L12" s="12">
         <v>114.9038</v>
       </c>
-      <c r="J12" s="8">
+      <c r="M12" s="8">
         <v>7.31</v>
       </c>
-      <c r="K12" s="11">
+      <c r="N12" s="11">
         <f t="shared" si="0"/>
         <v>2.1954154692882216E+21</v>
       </c>
-      <c r="L12" s="7">
+      <c r="O12" s="7">
         <f t="shared" si="1"/>
         <v>3.6120463415155861E-14</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="3">
         <v>0.41889999999999999</v>
       </c>
-      <c r="P12" s="4">
+      <c r="S12" s="4">
         <v>930.40474128873905</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="T12" s="4">
         <v>21678363.871831391</v>
       </c>
-      <c r="R12" s="6">
+      <c r="U12" s="6">
         <v>1.2</v>
       </c>
-      <c r="S12" s="5">
+      <c r="V12" s="5">
         <v>0.94996005749985768</v>
       </c>
-      <c r="T12" s="4">
+      <c r="W12" s="4">
         <v>1.0394519936531873E-14</v>
       </c>
-      <c r="U12" s="11"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -6799,56 +6933,67 @@
       <c r="D13" s="3">
         <v>0.2626</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="2"/>
+        <v>380299105.67937464</v>
+      </c>
+      <c r="G13" s="3">
+        <f>SQRT(D13/(M13*PI()*0.1))</f>
+        <v>0.35888067751865055</v>
+      </c>
+      <c r="H13" s="4">
         <v>175.6615109257871</v>
       </c>
-      <c r="F13" s="4">
+      <c r="I13" s="4">
         <v>71507901.212351248</v>
       </c>
-      <c r="G13" s="6">
+      <c r="J13" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H13" s="5">
+      <c r="K13" s="5">
         <v>0.98030078438895207</v>
       </c>
-      <c r="I13" s="12">
+      <c r="L13" s="12">
         <v>89.904700000000005</v>
       </c>
-      <c r="J13" s="5">
+      <c r="M13" s="5">
         <v>6.49</v>
       </c>
-      <c r="K13" s="11">
+      <c r="N13" s="11">
         <f t="shared" si="0"/>
         <v>1.7589483085978817E+21</v>
       </c>
-      <c r="L13" s="7">
+      <c r="O13" s="7">
         <f t="shared" si="1"/>
         <v>4.1470722780867202E-14</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="3">
+      <c r="R13" s="3">
         <v>0.41889999999999999</v>
       </c>
-      <c r="P13" s="4">
+      <c r="S13" s="4">
         <v>16850.364724661609</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="T13" s="4">
         <v>79134907.848811373</v>
       </c>
-      <c r="R13" s="6">
+      <c r="U13" s="6">
         <v>2.8</v>
       </c>
-      <c r="S13" s="5">
+      <c r="V13" s="5">
         <v>0.99792537849465746</v>
       </c>
-      <c r="T13" s="4">
+      <c r="W13" s="4">
         <v>3.6120463415155861E-14</v>
       </c>
-      <c r="U13" s="11"/>
-    </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -6862,89 +7007,101 @@
         <f>0.0962</f>
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="2"/>
+        <v>105519256.5725446</v>
+      </c>
+      <c r="G14" s="3">
+        <f>SQRT(D14/(M14*PI()*0.1))</f>
+        <v>0.33676792234679986</v>
+      </c>
+      <c r="H14" s="4">
         <f>24650/60</f>
         <v>410.83333333333331</v>
       </c>
-      <c r="F14" s="4">
+      <c r="I14" s="4">
         <v>32000000</v>
       </c>
-      <c r="G14" s="6">
+      <c r="J14" s="6">
         <v>1.2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="K14" s="5">
         <v>0.99294876429584389</v>
       </c>
-      <c r="I14" s="12">
+      <c r="L14" s="12">
         <v>26.9815</v>
       </c>
-      <c r="J14" s="8">
+      <c r="M14" s="8">
         <v>2.7</v>
       </c>
-      <c r="K14" s="11">
+      <c r="N14" s="11">
         <f t="shared" si="0"/>
         <v>2.1470874488075159E+21</v>
       </c>
-      <c r="L14" s="7">
+      <c r="O14" s="7">
         <f t="shared" si="1"/>
         <v>1.500974815743048E-14</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>0.2626</v>
       </c>
-      <c r="P14" s="4">
+      <c r="S14" s="4">
         <v>175.6615109257871</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="T14" s="4">
         <v>71507901.212351248</v>
       </c>
-      <c r="R14" s="6">
+      <c r="U14" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S14" s="5">
+      <c r="V14" s="5">
         <v>0.98030078438895207</v>
       </c>
-      <c r="T14" s="4">
+      <c r="W14" s="4">
         <v>4.1470722780867202E-14</v>
       </c>
-      <c r="U14" s="11"/>
-    </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="7"/>
-      <c r="N15" s="3" t="s">
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="F15" s="13"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="P15" s="4">
+      <c r="S15" s="4">
         <v>410.83333333333331</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="T15" s="4">
         <v>32000000</v>
       </c>
-      <c r="R15" s="6">
+      <c r="U15" s="6">
         <v>1.2</v>
       </c>
-      <c r="S15" s="5">
+      <c r="V15" s="5">
         <v>0.99294876429584389</v>
       </c>
-      <c r="T15" s="4">
+      <c r="W15" s="4">
         <v>1.500974815743048E-14</v>
       </c>
-      <c r="U15" s="11"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="X15" s="11"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -6957,44 +7114,55 @@
       <c r="D16" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="13">
+        <f>(3.7*10^15/(4*PI()*C16^2))*(1-EXP(-0.01*(E16*10^-24)*(6.022*10^23)*M16/L16))</f>
+        <v>5321694506.6118584</v>
+      </c>
+      <c r="G16" s="3">
+        <f>SQRT(D16/(M16*PI()*0.01))</f>
+        <v>0.49380144937386727</v>
+      </c>
+      <c r="H16" s="4">
         <v>6974.9992617179323</v>
       </c>
-      <c r="F16" s="4">
+      <c r="I16" s="4">
         <v>5370999431.4963455</v>
       </c>
-      <c r="G16" s="6">
+      <c r="J16" s="6">
         <v>1.3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="K16" s="5">
         <v>0.97422169985945928</v>
       </c>
-      <c r="I16" s="12">
+      <c r="L16" s="12">
         <v>196.9666</v>
       </c>
-      <c r="J16" s="8">
+      <c r="M16" s="8">
         <v>19.32</v>
       </c>
-      <c r="K16" s="11">
+      <c r="N16" s="11">
         <f t="shared" si="0"/>
         <v>4.5249092993431365E+20</v>
       </c>
-      <c r="L16" s="7">
+      <c r="O16" s="7">
         <f t="shared" si="1"/>
         <v>1.2183930955731154E-11</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="5"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="11"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="U16" s="6"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="11"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -7007,56 +7175,67 @@
       <c r="D17" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F17" s="13">
+        <f>(3.7*10^15/(4*PI()*C17^2))*(1-EXP(-0.01*(E17*10^-24)*(6.022*10^23)*M17/L17))</f>
+        <v>3549367.242070524</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SQRT(D17/(M17*PI()*0.01))</f>
+        <v>0.49380144937386727</v>
+      </c>
+      <c r="H17" s="4">
         <v>106.71660546501033</v>
       </c>
-      <c r="F17" s="4">
+      <c r="I17" s="4">
         <v>35829979.45161318</v>
       </c>
-      <c r="G17" s="6">
+      <c r="J17" s="6">
         <v>5.3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="K17" s="5">
         <v>0.98017778522755672</v>
       </c>
-      <c r="I17" s="12">
+      <c r="L17" s="12">
         <v>196.9666</v>
       </c>
-      <c r="J17" s="8">
+      <c r="M17" s="8">
         <v>19.32</v>
       </c>
-      <c r="K17" s="11">
+      <c r="N17" s="11">
         <f t="shared" si="0"/>
         <v>4.5249092993431365E+20</v>
       </c>
-      <c r="L17" s="7">
+      <c r="O17" s="7">
         <f t="shared" si="1"/>
         <v>8.0785203881543114E-14</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="P17" s="4">
+      <c r="S17" s="4">
         <v>6974.9992617179323</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="T17" s="4">
         <v>5370999431.4963455</v>
       </c>
-      <c r="R17" s="6">
+      <c r="U17" s="6">
         <v>1.3</v>
       </c>
-      <c r="S17" s="5">
+      <c r="V17" s="5">
         <v>0.97422169985945928</v>
       </c>
-      <c r="T17" s="4">
+      <c r="W17" s="4">
         <v>1.2183930955731154E-11</v>
       </c>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="X17" s="11"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -7069,56 +7248,67 @@
       <c r="D18" s="3">
         <v>1.1819999999999999</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="13">
+        <f>(3.7*10^15/(4*PI()*C18^2))*(1-EXP(-0.1*(E18*10^-24)*(6.022*10^23)*M18/L18))</f>
+        <v>4602387062.9718428</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SQRT(D18/(M18*PI()*0.1))</f>
+        <v>0.7174226989434398</v>
+      </c>
+      <c r="H18" s="4">
         <v>123250.81264223563</v>
       </c>
-      <c r="F18" s="4">
+      <c r="I18" s="4">
         <v>2872242136.4429607</v>
       </c>
-      <c r="G18" s="6">
+      <c r="J18" s="6">
         <v>0.7</v>
       </c>
-      <c r="H18" s="5">
+      <c r="K18" s="5">
         <v>0.94996005749985768</v>
       </c>
-      <c r="I18" s="12">
+      <c r="L18" s="12">
         <v>114.9038</v>
       </c>
-      <c r="J18" s="8">
+      <c r="M18" s="8">
         <v>7.31</v>
       </c>
-      <c r="K18" s="11">
+      <c r="N18" s="11">
         <f t="shared" si="0"/>
         <v>6.194750739314103E+21</v>
       </c>
-      <c r="L18" s="7">
+      <c r="O18" s="7">
         <f t="shared" si="1"/>
         <v>4.8808096183023081E-13</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="P18" s="4">
+      <c r="S18" s="4">
         <v>106.71660546501033</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="T18" s="4">
         <v>35829979.45161318</v>
       </c>
-      <c r="R18" s="6">
+      <c r="U18" s="6">
         <v>5.3</v>
       </c>
-      <c r="S18" s="5">
+      <c r="V18" s="5">
         <v>0.98017778522755672</v>
       </c>
-      <c r="T18" s="4">
+      <c r="W18" s="4">
         <v>8.0785203881543114E-14</v>
       </c>
-      <c r="U18" s="11"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
@@ -7131,56 +7321,67 @@
       <c r="D19" s="3">
         <v>1.1819999999999999</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" ref="F19:F20" si="3">(3.7*10^15/(4*PI()*C19^2))*(1-EXP(-0.1*(E19*10^-24)*(6.022*10^23)*M19/L19))</f>
+        <v>23020708.450934477</v>
+      </c>
+      <c r="G19" s="3">
+        <f>SQRT(D19/(M19*PI()*0.1))</f>
+        <v>0.7174226989434398</v>
+      </c>
+      <c r="H19" s="4">
         <v>152757.42307722464</v>
       </c>
-      <c r="F19" s="4">
+      <c r="I19" s="4">
         <v>717736341.01455009</v>
       </c>
-      <c r="G19" s="6">
+      <c r="J19" s="6">
         <v>2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="K19" s="5">
         <v>0.99792537849465746</v>
       </c>
-      <c r="I19" s="12">
+      <c r="L19" s="12">
         <v>114.9038</v>
       </c>
-      <c r="J19" s="8">
+      <c r="M19" s="8">
         <v>7.31</v>
       </c>
-      <c r="K19" s="11">
+      <c r="N19" s="11">
         <f t="shared" si="0"/>
         <v>6.194750739314103E+21</v>
       </c>
-      <c r="L19" s="7">
+      <c r="O19" s="7">
         <f t="shared" si="1"/>
         <v>1.1610289067754552E-13</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O19" s="3">
+      <c r="R19" s="3">
         <v>1.1819999999999999</v>
       </c>
-      <c r="P19" s="4">
+      <c r="S19" s="4">
         <v>123250.81264223563</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="T19" s="4">
         <v>2872242136.4429607</v>
       </c>
-      <c r="R19" s="6">
+      <c r="U19" s="6">
         <v>0.7</v>
       </c>
-      <c r="S19" s="5">
+      <c r="V19" s="5">
         <v>0.94996005749985768</v>
       </c>
-      <c r="T19" s="4">
+      <c r="W19" s="4">
         <v>4.8808096183023081E-13</v>
       </c>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -7193,80 +7394,91 @@
       <c r="D20" s="3">
         <v>1.008</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="3"/>
+        <v>13046587686.674057</v>
+      </c>
+      <c r="G20" s="3">
+        <f>SQRT(D20/(M20*PI()*0.1))</f>
+        <v>0.70312571481711139</v>
+      </c>
+      <c r="H20" s="4">
         <v>27716.641424832629</v>
       </c>
-      <c r="F20" s="4">
+      <c r="I20" s="4">
         <v>11289989718.088768</v>
       </c>
-      <c r="G20" s="6">
+      <c r="J20" s="6">
         <v>1</v>
       </c>
-      <c r="H20" s="5">
+      <c r="K20" s="5">
         <v>0.98030078438895207</v>
       </c>
-      <c r="I20" s="12">
+      <c r="L20" s="12">
         <v>89.904700000000005</v>
       </c>
-      <c r="J20" s="5">
+      <c r="M20" s="5">
         <v>6.49</v>
       </c>
-      <c r="K20" s="11">
+      <c r="N20" s="11">
         <f t="shared" si="0"/>
         <v>6.7517893947702389E+21</v>
       </c>
-      <c r="L20" s="7">
+      <c r="O20" s="7">
         <f t="shared" si="1"/>
         <v>1.7057497220082454E-12</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>1.1819999999999999</v>
       </c>
-      <c r="P20" s="4">
+      <c r="S20" s="4">
         <v>152757.42307722464</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="T20" s="4">
         <v>717736341.01455009</v>
       </c>
-      <c r="R20" s="6">
+      <c r="U20" s="6">
         <v>2</v>
       </c>
-      <c r="S20" s="5">
+      <c r="V20" s="5">
         <v>0.99792537849465746</v>
       </c>
-      <c r="T20" s="4">
+      <c r="W20" s="4">
         <v>1.1610289067754552E-13</v>
       </c>
-      <c r="U20" s="11"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="L21" s="7"/>
-      <c r="N21" s="3" t="s">
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="O21" s="7"/>
+      <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>1.008</v>
       </c>
-      <c r="P21" s="4">
+      <c r="S21" s="4">
         <v>27716.641424832629</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="T21" s="4">
         <v>11289989718.088768</v>
       </c>
-      <c r="R21" s="6">
+      <c r="U21" s="6">
         <v>1</v>
       </c>
-      <c r="S21" s="5">
+      <c r="V21" s="5">
         <v>0.98030078438895207</v>
       </c>
-      <c r="T21" s="4">
+      <c r="W21" s="4">
         <v>1.7057497220082454E-12</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -7277,7 +7489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -7288,7 +7500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -7299,7 +7511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -7310,7 +7522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -9847,8 +10059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F58F6D8-7644-4E5A-912C-97CFE56F7E6B}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9875,8 +10087,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <f>B2*3.7*10^15</f>
-        <v>0</v>
+        <f t="shared" ref="C2:C12" si="0">C3</f>
+        <v>480711.4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9887,8 +10099,8 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C66" si="0">B3*3.7*10^15</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>480711.4</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -9901,7 +10113,7 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480711.4</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -9914,7 +10126,7 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480711.4</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -9927,7 +10139,7 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480711.4</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -9940,7 +10152,7 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480711.4</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -9953,7 +10165,7 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480711.4</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -9966,7 +10178,7 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480711.4</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -9979,7 +10191,7 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480711.4</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -9992,7 +10204,7 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480711.4</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -10005,7 +10217,7 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480711.4</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -10017,8 +10229,8 @@
         <v>0</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C14</f>
+        <v>480711.4</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -10030,7 +10242,7 @@
         <v>1.2992199999999999E-10</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C66" si="1">B14*3.7*10^15</f>
         <v>480711.4</v>
       </c>
       <c r="D14" s="4"/>
@@ -10043,8 +10255,8 @@
         <v>0</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C14</f>
+        <v>480711.4</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -10056,8 +10268,8 @@
         <v>0</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C15</f>
+        <v>480711.4</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -10069,7 +10281,7 @@
         <v>1.9488400000000001E-10</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>721070.80000000016</v>
       </c>
       <c r="D17" s="4"/>
@@ -10082,7 +10294,7 @@
         <v>1.52659E-9</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5648383</v>
       </c>
       <c r="D18" s="4"/>
@@ -10095,7 +10307,7 @@
         <v>1.9001199999999998E-9</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7030444</v>
       </c>
       <c r="D19" s="4"/>
@@ -10108,7 +10320,7 @@
         <v>6.13883E-9</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22713671</v>
       </c>
       <c r="D20" s="4"/>
@@ -10121,7 +10333,7 @@
         <v>6.4798799999999998E-9</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23975556</v>
       </c>
       <c r="D21" s="4"/>
@@ -10134,7 +10346,7 @@
         <v>1.52821E-8</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56543770</v>
       </c>
       <c r="D22" s="4"/>
@@ -10147,7 +10359,7 @@
         <v>3.8992999999999997E-8</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144274100</v>
       </c>
       <c r="D23" s="4"/>
@@ -10160,7 +10372,7 @@
         <v>6.8534100000000002E-8</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>253576170</v>
       </c>
       <c r="D24" s="4"/>
@@ -10173,7 +10385,7 @@
         <v>7.7856000000000006E-8</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>288067200</v>
       </c>
       <c r="D25" s="4"/>
@@ -10186,7 +10398,7 @@
         <v>8.1786199999999999E-8</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>302608940</v>
       </c>
       <c r="D26" s="4"/>
@@ -10199,7 +10411,7 @@
         <v>1.06796E-7</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>395145200</v>
       </c>
       <c r="D27" s="4"/>
@@ -10212,7 +10424,7 @@
         <v>1.25261E-7</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>463465700</v>
       </c>
       <c r="D28" s="4"/>
@@ -10225,7 +10437,7 @@
         <v>1.4856600000000001E-7</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>549694200</v>
       </c>
       <c r="D29" s="4"/>
@@ -10238,7 +10450,7 @@
         <v>1.3575300000000001E-7</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>502286100</v>
       </c>
       <c r="D30" s="4"/>
@@ -10251,7 +10463,7 @@
         <v>1.6295499999999999E-7</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>602933500</v>
       </c>
       <c r="D31" s="4"/>
@@ -10264,7 +10476,7 @@
         <v>1.9235E-7</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>711695000.00000012</v>
       </c>
       <c r="D32" s="4"/>
@@ -10277,7 +10489,7 @@
         <v>1.5644299999999999E-7</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>578839100</v>
       </c>
       <c r="D33" s="4"/>
@@ -10290,7 +10502,7 @@
         <v>2.1792899999999999E-7</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>806337300</v>
       </c>
       <c r="D34" s="4"/>
@@ -10303,7 +10515,7 @@
         <v>1.8552899999999999E-7</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>686457300</v>
       </c>
       <c r="D35" s="4"/>
@@ -10316,7 +10528,7 @@
         <v>1.9062900000000001E-7</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>705327300.00000012</v>
       </c>
       <c r="D36" s="4"/>
@@ -10329,7 +10541,7 @@
         <v>2.82874E-7</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1046633800.0000001</v>
       </c>
       <c r="D37" s="4"/>
@@ -10342,7 +10554,7 @@
         <v>2.3202499999999999E-7</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>858492500</v>
       </c>
       <c r="D38" s="4"/>
@@ -10355,7 +10567,7 @@
         <v>3.3318599999999998E-7</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1232788200</v>
       </c>
       <c r="D39" s="4"/>
@@ -10368,7 +10580,7 @@
         <v>2.6267099999999998E-7</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>971882699.99999988</v>
       </c>
       <c r="D40" s="4"/>
@@ -10381,7 +10593,7 @@
         <v>3.77441E-7</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1396531700</v>
       </c>
       <c r="D41" s="4"/>
@@ -10394,7 +10606,7 @@
         <v>3.7083100000000002E-7</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1372074700</v>
       </c>
       <c r="D42" s="4"/>
@@ -10407,7 +10619,7 @@
         <v>4.6588500000000002E-7</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1723774500.0000002</v>
       </c>
       <c r="D43" s="4"/>
@@ -10420,7 +10632,7 @@
         <v>4.4064800000000002E-7</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1630397600</v>
       </c>
       <c r="D44" s="4"/>
@@ -10433,7 +10645,7 @@
         <v>5.1957600000000005E-7</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1922431200</v>
       </c>
       <c r="D45" s="4"/>
@@ -10446,7 +10658,7 @@
         <v>7.2223899999999996E-7</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2672284300</v>
       </c>
       <c r="D46" s="4"/>
@@ -10459,7 +10671,7 @@
         <v>6.3147199999999998E-7</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2336446400</v>
       </c>
       <c r="D47" s="4"/>
@@ -10472,7 +10684,7 @@
         <v>7.1216999999999995E-7</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2635029000</v>
       </c>
       <c r="D48" s="4"/>
@@ -10485,7 +10697,7 @@
         <v>9.83301E-7</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3638213700.0000005</v>
       </c>
       <c r="D49" s="4"/>
@@ -10498,7 +10710,7 @@
         <v>9.9010600000000001E-7</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3663392200</v>
       </c>
       <c r="D50" s="4"/>
@@ -10511,7 +10723,7 @@
         <v>1.4061E-6</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5202570000</v>
       </c>
       <c r="D51" s="4"/>
@@ -10524,7 +10736,7 @@
         <v>1.2783600000000001E-6</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4729932000</v>
       </c>
       <c r="D52" s="4"/>
@@ -10537,7 +10749,7 @@
         <v>1.3396000000000001E-6</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4956520000</v>
       </c>
       <c r="D53" s="4"/>
@@ -10550,7 +10762,7 @@
         <v>1.2688499999999999E-6</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4694745000</v>
       </c>
       <c r="D54" s="4"/>
@@ -10563,7 +10775,7 @@
         <v>1.41786E-6</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5246082000</v>
       </c>
       <c r="D55" s="4"/>
@@ -10576,7 +10788,7 @@
         <v>1.37882E-6</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5101634000</v>
       </c>
       <c r="D56" s="4"/>
@@ -10589,7 +10801,7 @@
         <v>1.5257099999999999E-6</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5645127000</v>
       </c>
       <c r="D57" s="4"/>
@@ -10602,7 +10814,7 @@
         <v>1.45334E-6</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5377358000.000001</v>
       </c>
       <c r="D58" s="4"/>
@@ -10615,7 +10827,7 @@
         <v>1.2087299999999999E-6</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4472301000</v>
       </c>
       <c r="D59" s="4"/>
@@ -10628,7 +10840,7 @@
         <v>1.58624E-6</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5869088000</v>
       </c>
       <c r="D60" s="4"/>
@@ -10641,7 +10853,7 @@
         <v>1.51139E-6</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5592143000</v>
       </c>
       <c r="D61" s="4"/>
@@ -10654,7 +10866,7 @@
         <v>1.8295E-6</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6769150000</v>
       </c>
       <c r="D62" s="4"/>
@@ -10667,7 +10879,7 @@
         <v>1.75283E-6</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6485471000</v>
       </c>
       <c r="D63" s="4"/>
@@ -10680,7 +10892,7 @@
         <v>1.71798E-6</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6356526000</v>
       </c>
       <c r="D64" s="4"/>
@@ -10693,7 +10905,7 @@
         <v>1.65367E-6</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6118579000</v>
       </c>
       <c r="D65" s="4"/>
@@ -10706,7 +10918,7 @@
         <v>1.93409E-6</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7156133000</v>
       </c>
       <c r="D66" s="4"/>
@@ -10719,7 +10931,7 @@
         <v>1.84732E-6</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" ref="C67:C96" si="1">B67*3.7*10^15</f>
+        <f t="shared" ref="C67:C96" si="2">B67*3.7*10^15</f>
         <v>6835084000</v>
       </c>
       <c r="D67" s="4"/>
@@ -10732,7 +10944,7 @@
         <v>1.7580900000000001E-6</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6504933000</v>
       </c>
       <c r="D68" s="4"/>
@@ -10745,7 +10957,7 @@
         <v>1.6924000000000001E-6</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6261880000</v>
       </c>
       <c r="D69" s="4"/>
@@ -10758,7 +10970,7 @@
         <v>2.2168499999999998E-6</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8202344999.999999</v>
       </c>
       <c r="D70" s="4"/>
@@ -10771,7 +10983,7 @@
         <v>1.93857E-6</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7172709000</v>
       </c>
       <c r="D71" s="4"/>
@@ -10784,7 +10996,7 @@
         <v>4.8533499999999999E-6</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17957395000</v>
       </c>
       <c r="D72" s="4"/>
@@ -10797,7 +11009,7 @@
         <v>4.7067000000000002E-6</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17414790000</v>
       </c>
       <c r="D73" s="4"/>
@@ -10810,7 +11022,7 @@
         <v>5.1429499999999996E-6</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19028915000</v>
       </c>
       <c r="D74" s="4"/>
@@ -10823,7 +11035,7 @@
         <v>5.44698E-6</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20153826000</v>
       </c>
       <c r="D75" s="4"/>
@@ -10836,7 +11048,7 @@
         <v>4.8777099999999998E-6</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18047527000</v>
       </c>
       <c r="D76" s="4"/>
@@ -10849,7 +11061,7 @@
         <v>6.8711400000000004E-6</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25423218000.000004</v>
       </c>
       <c r="D77" s="4"/>
@@ -10862,7 +11074,7 @@
         <v>1.0613300000000001E-5</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39269210000</v>
       </c>
       <c r="D78" s="4"/>
@@ -10875,7 +11087,7 @@
         <v>5.4133999999999997E-6</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20029580000</v>
       </c>
       <c r="D79" s="4"/>
@@ -10888,7 +11100,7 @@
         <v>7.0237399999999996E-6</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25987838000</v>
       </c>
       <c r="D80" s="4"/>
@@ -10901,7 +11113,7 @@
         <v>8.0655200000000007E-6</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29842424000.000004</v>
       </c>
       <c r="D81" s="4"/>
@@ -10914,7 +11126,7 @@
         <v>7.8288800000000008E-6</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28966856000.000004</v>
       </c>
       <c r="D82" s="4"/>
@@ -10927,7 +11139,7 @@
         <v>6.7496999999999999E-6</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24973890000</v>
       </c>
       <c r="D83" s="4"/>
@@ -10940,7 +11152,7 @@
         <v>7.7294700000000007E-6</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28599039000.000004</v>
       </c>
       <c r="D84" s="4"/>
@@ -10953,7 +11165,7 @@
         <v>7.1910600000000002E-6</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26606922000</v>
       </c>
       <c r="D85" s="4"/>
@@ -10966,7 +11178,7 @@
         <v>6.7955600000000004E-6</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25143572000</v>
       </c>
       <c r="D86" s="4"/>
@@ -10979,7 +11191,7 @@
         <v>1.03968E-5</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38468160000</v>
       </c>
       <c r="D87" s="4"/>
@@ -10992,7 +11204,7 @@
         <v>1.05453E-5</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39017610000.000008</v>
       </c>
       <c r="D88" s="4"/>
@@ -11005,7 +11217,7 @@
         <v>1.2747200000000001E-5</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47164640000</v>
       </c>
       <c r="D89" s="4"/>
@@ -11018,7 +11230,7 @@
         <v>1.5531799999999999E-5</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57467660000</v>
       </c>
       <c r="D90" s="4"/>
@@ -11031,7 +11243,7 @@
         <v>2.39101E-5</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88467370000</v>
       </c>
       <c r="D91" s="4"/>
@@ -11044,7 +11256,7 @@
         <v>2.8057099999999999E-5</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103811270000</v>
       </c>
       <c r="D92" s="4"/>
@@ -11057,7 +11269,7 @@
         <v>3.7394200000000002E-5</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138358540000</v>
       </c>
       <c r="D93" s="4"/>
@@ -11070,7 +11282,7 @@
         <v>4.8026499999999998E-5</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177698050000</v>
       </c>
       <c r="D94" s="4"/>
@@ -11083,7 +11295,7 @@
         <v>6.1354300000000003E-4</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2270109100000</v>
       </c>
       <c r="D95" s="4"/>
@@ -11096,7 +11308,7 @@
         <v>6.8131799999999998E-4</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2520876600000</v>
       </c>
       <c r="D96" s="4"/>
